--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H2">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I2">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J2">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N2">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P2">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q2">
-        <v>0.7783155727042075</v>
+        <v>4.821171288072222</v>
       </c>
       <c r="R2">
-        <v>0.7783155727042075</v>
+        <v>43.39054159265</v>
       </c>
       <c r="S2">
-        <v>0.0003788425644034258</v>
+        <v>0.001854187992327359</v>
       </c>
       <c r="T2">
-        <v>0.0003788425644034258</v>
+        <v>0.001854187992327359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H3">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I3">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J3">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N3">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P3">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q3">
-        <v>9.923838915407083</v>
+        <v>23.64423241246711</v>
       </c>
       <c r="R3">
-        <v>9.923838915407083</v>
+        <v>212.798091712204</v>
       </c>
       <c r="S3">
-        <v>0.004830396198263048</v>
+        <v>0.009093402662431417</v>
       </c>
       <c r="T3">
-        <v>0.004830396198263048</v>
+        <v>0.009093402662431419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H4">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I4">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J4">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N4">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P4">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q4">
-        <v>14.56126629838237</v>
+        <v>36.96212310824178</v>
       </c>
       <c r="R4">
-        <v>14.56126629838237</v>
+        <v>332.659107974176</v>
       </c>
       <c r="S4">
-        <v>0.007087648839241241</v>
+        <v>0.01421536816328954</v>
       </c>
       <c r="T4">
-        <v>0.007087648839241241</v>
+        <v>0.01421536816328954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H5">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I5">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J5">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N5">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P5">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q5">
-        <v>15.81856659486699</v>
+        <v>37.82055445516888</v>
       </c>
       <c r="R5">
-        <v>15.81856659486699</v>
+        <v>340.38499009652</v>
       </c>
       <c r="S5">
-        <v>0.007699635654422751</v>
+        <v>0.01454551471909592</v>
       </c>
       <c r="T5">
-        <v>0.007699635654422751</v>
+        <v>0.01454551471909592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H6">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I6">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J6">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N6">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P6">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q6">
-        <v>3.002424980635523</v>
+        <v>7.419168687484889</v>
       </c>
       <c r="R6">
-        <v>3.002424980635523</v>
+        <v>66.772518187364</v>
       </c>
       <c r="S6">
-        <v>0.00146142055868275</v>
+        <v>0.002853359209082624</v>
       </c>
       <c r="T6">
-        <v>0.00146142055868275</v>
+        <v>0.002853359209082625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H7">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I7">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J7">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N7">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P7">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q7">
-        <v>5.073901749859793</v>
+        <v>12.905182217882</v>
       </c>
       <c r="R7">
-        <v>5.073901749859793</v>
+        <v>116.146639960938</v>
       </c>
       <c r="S7">
-        <v>0.002469705114301283</v>
+        <v>0.004963240772298174</v>
       </c>
       <c r="T7">
-        <v>0.002469705114301283</v>
+        <v>0.004963240772298174</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J8">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N8">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P8">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q8">
-        <v>18.94576693596552</v>
+        <v>49.659151894625</v>
       </c>
       <c r="R8">
-        <v>18.94576693596552</v>
+        <v>446.932367051625</v>
       </c>
       <c r="S8">
-        <v>0.009221790212513905</v>
+        <v>0.01909855461472141</v>
       </c>
       <c r="T8">
-        <v>0.009221790212513905</v>
+        <v>0.01909855461472141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J9">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N9">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P9">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q9">
-        <v>241.5662050138896</v>
+        <v>243.54092784619</v>
       </c>
       <c r="R9">
-        <v>241.5662050138896</v>
+        <v>2191.86835061571</v>
       </c>
       <c r="S9">
-        <v>0.1175815617599693</v>
+        <v>0.0936640988404361</v>
       </c>
       <c r="T9">
-        <v>0.1175815617599693</v>
+        <v>0.09366409884043611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J10">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N10">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P10">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q10">
-        <v>354.450517574991</v>
+        <v>380.71820644936</v>
       </c>
       <c r="R10">
-        <v>354.450517574991</v>
+        <v>3426.46385804424</v>
       </c>
       <c r="S10">
-        <v>0.1725276324173762</v>
+        <v>0.1464214989841359</v>
       </c>
       <c r="T10">
-        <v>0.1725276324173762</v>
+        <v>0.1464214989841358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J11">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N11">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P11">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q11">
-        <v>385.0557363591341</v>
+        <v>389.5602429797</v>
       </c>
       <c r="R11">
-        <v>385.0557363591341</v>
+        <v>3506.0421868173</v>
       </c>
       <c r="S11">
-        <v>0.1874246227577187</v>
+        <v>0.149822082988035</v>
       </c>
       <c r="T11">
-        <v>0.1874246227577187</v>
+        <v>0.149822082988035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J12">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N12">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P12">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q12">
-        <v>73.0850646200027</v>
+        <v>76.41911120129001</v>
       </c>
       <c r="R12">
-        <v>73.0850646200027</v>
+        <v>687.7720008116102</v>
       </c>
       <c r="S12">
-        <v>0.03557391663645205</v>
+        <v>0.02939024355436643</v>
       </c>
       <c r="T12">
-        <v>0.03557391663645205</v>
+        <v>0.02939024355436643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H13">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I13">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J13">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1538543852417</v>
+        <v>20.463909</v>
       </c>
       <c r="N13">
-        <v>19.1538543852417</v>
+        <v>61.391727</v>
       </c>
       <c r="O13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="P13">
-        <v>0.1032155362023709</v>
+        <v>0.1044341524345781</v>
       </c>
       <c r="Q13">
-        <v>123.5089767956683</v>
+        <v>132.926288176305</v>
       </c>
       <c r="R13">
-        <v>123.5089767956683</v>
+        <v>1196.336593586745</v>
       </c>
       <c r="S13">
-        <v>0.06011759129210761</v>
+        <v>0.05112249963218041</v>
       </c>
       <c r="T13">
-        <v>0.06011759129210761</v>
+        <v>0.05112249963218041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H14">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I14">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J14">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.93812215535201</v>
+        <v>7.644991666666666</v>
       </c>
       <c r="N14">
-        <v>2.93812215535201</v>
+        <v>22.934975</v>
       </c>
       <c r="O14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="P14">
-        <v>0.01583283696290337</v>
+        <v>0.03901494211481031</v>
       </c>
       <c r="Q14">
-        <v>12.80379246155641</v>
+        <v>0.1888848091083333</v>
       </c>
       <c r="R14">
-        <v>12.80379246155641</v>
+        <v>1.699963281975</v>
       </c>
       <c r="S14">
-        <v>0.006232204185986039</v>
+        <v>7.264374652031041E-05</v>
       </c>
       <c r="T14">
-        <v>0.006232204185986039</v>
+        <v>7.264374652031041E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H15">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I15">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J15">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.4622479699286</v>
+        <v>37.49295533333333</v>
       </c>
       <c r="N15">
-        <v>37.4622479699286</v>
+        <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="P15">
-        <v>0.2018750865382842</v>
+        <v>0.1913390551386913</v>
       </c>
       <c r="Q15">
-        <v>163.2535418163585</v>
+        <v>0.9263384474206668</v>
       </c>
       <c r="R15">
-        <v>163.2535418163585</v>
+        <v>8.337046026786</v>
       </c>
       <c r="S15">
-        <v>0.0794631285800519</v>
+        <v>0.0003562631409275991</v>
       </c>
       <c r="T15">
-        <v>0.0794631285800519</v>
+        <v>0.0003562631409275991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H16">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I16">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J16">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.9684223490631</v>
+        <v>58.61130133333333</v>
       </c>
       <c r="N16">
-        <v>54.9684223490631</v>
+        <v>175.833904</v>
       </c>
       <c r="O16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420127</v>
       </c>
       <c r="P16">
-        <v>0.2962116696119669</v>
+        <v>0.2991130178420126</v>
       </c>
       <c r="Q16">
-        <v>239.5422090992884</v>
+        <v>1.448109422042667</v>
       </c>
       <c r="R16">
-        <v>239.5422090992884</v>
+        <v>13.032984798384</v>
       </c>
       <c r="S16">
-        <v>0.1165963883553495</v>
+        <v>0.0005569325256230975</v>
       </c>
       <c r="T16">
-        <v>0.1165963883553495</v>
+        <v>0.0005569325256230973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H17">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I17">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J17">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.7147000628665</v>
+        <v>59.97252666666666</v>
       </c>
       <c r="N17">
-        <v>59.7147000628665</v>
+        <v>179.91758</v>
       </c>
       <c r="O17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="P17">
-        <v>0.321788224040252</v>
+        <v>0.3060598046929091</v>
       </c>
       <c r="Q17">
-        <v>260.2256087672537</v>
+        <v>1.481741216353333</v>
       </c>
       <c r="R17">
-        <v>260.2256087672537</v>
+        <v>13.33567094718</v>
       </c>
       <c r="S17">
-        <v>0.1266639656281107</v>
+        <v>0.0005698670731521474</v>
       </c>
       <c r="T17">
-        <v>0.1266639656281107</v>
+        <v>0.0005698670731521474</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.3578148846648</v>
+        <v>0.024707</v>
       </c>
       <c r="H18">
-        <v>4.3578148846648</v>
+        <v>0.07412100000000001</v>
       </c>
       <c r="I18">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="J18">
-        <v>0.3936252359945479</v>
+        <v>0.001861946797371626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.3340804999415</v>
+        <v>11.76466866666667</v>
       </c>
       <c r="N18">
-        <v>11.3340804999415</v>
+        <v>35.294006</v>
       </c>
       <c r="O18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="P18">
-        <v>0.06107664664422248</v>
+        <v>0.06003902777699859</v>
       </c>
       <c r="Q18">
-        <v>49.39182470663413</v>
+        <v>0.2906696687473334</v>
       </c>
       <c r="R18">
-        <v>49.39182470663413</v>
+        <v>2.616027018726001</v>
       </c>
       <c r="S18">
-        <v>0.02404130944908769</v>
+        <v>0.0001117894754866886</v>
       </c>
       <c r="T18">
-        <v>0.02404130944908769</v>
+        <v>0.0001117894754866886</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.024707</v>
+      </c>
+      <c r="H19">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J19">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.463909</v>
+      </c>
+      <c r="N19">
+        <v>61.391727</v>
+      </c>
+      <c r="O19">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="P19">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="Q19">
+        <v>0.5056017996630001</v>
+      </c>
+      <c r="R19">
+        <v>4.550416196967</v>
+      </c>
+      <c r="S19">
+        <v>0.0001944508356617829</v>
+      </c>
+      <c r="T19">
+        <v>0.0001944508356617828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H20">
+        <v>18.355384</v>
+      </c>
+      <c r="I20">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J20">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.644991666666666</v>
+      </c>
+      <c r="N20">
+        <v>22.934975</v>
+      </c>
+      <c r="O20">
+        <v>0.03901494211481031</v>
+      </c>
+      <c r="P20">
+        <v>0.03901494211481031</v>
+      </c>
+      <c r="Q20">
+        <v>46.77558590615555</v>
+      </c>
+      <c r="R20">
+        <v>420.9802731554</v>
+      </c>
+      <c r="S20">
+        <v>0.01798955576124123</v>
+      </c>
+      <c r="T20">
+        <v>0.01798955576124123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H21">
+        <v>18.355384</v>
+      </c>
+      <c r="I21">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J21">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.49295533333333</v>
+      </c>
+      <c r="N21">
+        <v>112.478866</v>
+      </c>
+      <c r="O21">
+        <v>0.1913390551386913</v>
+      </c>
+      <c r="P21">
+        <v>0.1913390551386913</v>
+      </c>
+      <c r="Q21">
+        <v>229.3991974793938</v>
+      </c>
+      <c r="R21">
+        <v>2064.592777314544</v>
+      </c>
+      <c r="S21">
+        <v>0.08822529049489615</v>
+      </c>
+      <c r="T21">
+        <v>0.08822529049489616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H22">
+        <v>18.355384</v>
+      </c>
+      <c r="I22">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J22">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>58.61130133333333</v>
+      </c>
+      <c r="N22">
+        <v>175.833904</v>
+      </c>
+      <c r="O22">
+        <v>0.2991130178420127</v>
+      </c>
+      <c r="P22">
+        <v>0.2991130178420126</v>
+      </c>
+      <c r="Q22">
+        <v>358.6109809043484</v>
+      </c>
+      <c r="R22">
+        <v>3227.498828139136</v>
+      </c>
+      <c r="S22">
+        <v>0.1379192181689641</v>
+      </c>
+      <c r="T22">
+        <v>0.1379192181689641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H23">
+        <v>18.355384</v>
+      </c>
+      <c r="I23">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J23">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>59.97252666666666</v>
+      </c>
+      <c r="N23">
+        <v>179.91758</v>
+      </c>
+      <c r="O23">
+        <v>0.3060598046929091</v>
+      </c>
+      <c r="P23">
+        <v>0.3060598046929091</v>
+      </c>
+      <c r="Q23">
+        <v>366.9395854723022</v>
+      </c>
+      <c r="R23">
+        <v>3302.45626925072</v>
+      </c>
+      <c r="S23">
+        <v>0.141122339912626</v>
+      </c>
+      <c r="T23">
+        <v>0.141122339912626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.3578148846648</v>
-      </c>
-      <c r="H19">
-        <v>4.3578148846648</v>
-      </c>
-      <c r="I19">
-        <v>0.3936252359945479</v>
-      </c>
-      <c r="J19">
-        <v>0.3936252359945479</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.1538543852417</v>
-      </c>
-      <c r="N19">
-        <v>19.1538543852417</v>
-      </c>
-      <c r="O19">
-        <v>0.1032155362023709</v>
-      </c>
-      <c r="P19">
-        <v>0.1032155362023709</v>
-      </c>
-      <c r="Q19">
-        <v>83.46895173870844</v>
-      </c>
-      <c r="R19">
-        <v>83.46895173870844</v>
-      </c>
-      <c r="S19">
-        <v>0.04062823979596207</v>
-      </c>
-      <c r="T19">
-        <v>0.04062823979596207</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H24">
+        <v>18.355384</v>
+      </c>
+      <c r="I24">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J24">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.76466866666667</v>
+      </c>
+      <c r="N24">
+        <v>35.294006</v>
+      </c>
+      <c r="O24">
+        <v>0.06003902777699859</v>
+      </c>
+      <c r="P24">
+        <v>0.06003902777699859</v>
+      </c>
+      <c r="Q24">
+        <v>71.98167033647823</v>
+      </c>
+      <c r="R24">
+        <v>647.8350330283041</v>
+      </c>
+      <c r="S24">
+        <v>0.02768363553806284</v>
+      </c>
+      <c r="T24">
+        <v>0.02768363553806284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H25">
+        <v>18.355384</v>
+      </c>
+      <c r="I25">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J25">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.463909</v>
+      </c>
+      <c r="N25">
+        <v>61.391727</v>
+      </c>
+      <c r="O25">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="P25">
+        <v>0.1044341524345781</v>
+      </c>
+      <c r="Q25">
+        <v>125.207635945352</v>
+      </c>
+      <c r="R25">
+        <v>1126.868723508168</v>
+      </c>
+      <c r="S25">
+        <v>0.04815396119443772</v>
+      </c>
+      <c r="T25">
+        <v>0.04815396119443772</v>
       </c>
     </row>
   </sheetData>
